--- a/Python/Data/NewPlantData/NewTechFramework.xlsx
+++ b/Python/Data/NewPlantData/NewTechFramework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atpha\Documents\Postdocs\Projects\BlueToZeroH2\Model\Python\Data\NewPlantData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A9B2D0-9B8D-4888-8C7D-44D98464BD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63C1772-AEE5-47A0-9398-FCEF2E007C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21540" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30615" yWindow="6495" windowWidth="16755" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewTechFramework" sheetId="1" r:id="rId1"/>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,7 +2121,7 @@
         <v>74</v>
       </c>
       <c r="F17">
-        <v>240</v>
+        <v>1100</v>
       </c>
       <c r="G17">
         <v>0</v>
